--- a/DATA_goal/Junction_Flooding_414.xlsx
+++ b/DATA_goal/Junction_Flooding_414.xlsx
@@ -446,11 +446,11 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
@@ -462,12 +462,12 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -863,103 +863,103 @@
         <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.14</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.93</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.25</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.27</v>
+        <v>72.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.65</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.38</v>
+        <v>23.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.57</v>
+        <v>95.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_414.xlsx
+++ b/DATA_goal/Junction_Flooding_414.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45095.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45095.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>20.379</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>15.362</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.081</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>44.569</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>36.329</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.496</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>57.659</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>24.785</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>11.565</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>16.316</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>17.829</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.716</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>22.637</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>13.594</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.743</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>45.131</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>30.052</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>30.233</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>12.881</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>11.965</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>19.444</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>52.871</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>8.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>18.354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45095.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.54</v>
+        <v>7.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.89</v>
+        <v>5.282</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.487</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.14</v>
+        <v>15.484</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.93</v>
+        <v>12.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.82</v>
+        <v>5.124</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.69</v>
+        <v>25.999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.76</v>
+        <v>8.555</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.07</v>
+        <v>4.232</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.6</v>
+        <v>5.471</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.42</v>
+        <v>6.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.52</v>
+        <v>6.793</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.95</v>
+        <v>2.193</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.25</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.3</v>
+        <v>7.773</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.848</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.135</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.442</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.7</v>
+        <v>78.544</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.89</v>
+        <v>15.979</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.66</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>10.471</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.9</v>
+        <v>5.798</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.753</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.2</v>
+        <v>13.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.21</v>
+        <v>4.392</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.76</v>
+        <v>4.344</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.38</v>
+        <v>5.133</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.914</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.8</v>
+        <v>24.325</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.65</v>
+        <v>3.164</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.86</v>
+        <v>6.302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45095.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.52</v>
+        <v>12.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.36</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.48</v>
+        <v>28.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.43</v>
+        <v>22.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.15</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.8</v>
+        <v>38.19</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>10.21</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>7.18</v>
-      </c>
       <c r="L5" s="4" t="n">
-        <v>7.93</v>
+        <v>11.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.24</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.31</v>
+        <v>3.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.81</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>14.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.6</v>
+        <v>8.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.66</v>
+        <v>147.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.53</v>
+        <v>28.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.09</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.54</v>
+        <v>18.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.52</v>
+        <v>10.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.06</v>
+        <v>19.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.47</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.8</v>
+        <v>7.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.67</v>
+        <v>8.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.15</v>
+        <v>12.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.62</v>
+        <v>34.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.46</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.34</v>
+        <v>11.56</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_414.xlsx
+++ b/DATA_goal/Junction_Flooding_414.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45095.50694444445</v>
+        <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45095.51388888889</v>
+        <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.379</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.362</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.081</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.569</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.329</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.496</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>57.659</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.785</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.565</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.316</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.829</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.25</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.716</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.166</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>22.637</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.594</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>238.743</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.131</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.922</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.052</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.29</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.149</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.233</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.881</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.965</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.16</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.444</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>52.871</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.786</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45095.52083333334</v>
+        <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.01</v>
+        <v>6.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.282</v>
+        <v>4.886</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.487</v>
+        <v>0.424</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.484</v>
+        <v>14.143</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.38</v>
+        <v>11.926</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.124</v>
+        <v>5.823</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.999</v>
+        <v>13.688</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.555</v>
+        <v>7.765</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.232</v>
+        <v>4.075</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.471</v>
+        <v>5.605</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.425</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.793</v>
+        <v>6.521</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.193</v>
+        <v>1.951</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.639</v>
+        <v>5.253</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.773</v>
+        <v>7.297</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.848</v>
+        <v>4.353</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.135</v>
+        <v>0.44</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.442</v>
+        <v>0.718</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.544</v>
+        <v>72.702</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.979</v>
+        <v>13.894</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.205</v>
+        <v>4.663</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.471</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.798</v>
+        <v>4.897</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.753</v>
+        <v>1.117</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.07</v>
+        <v>7.198</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.392</v>
+        <v>4.207</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.344</v>
+        <v>3.757</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.133</v>
+        <v>4.382</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.914</v>
+        <v>6.384</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.856</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.325</v>
+        <v>11.801</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.164</v>
+        <v>2.652</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.302</v>
+        <v>5.864</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45095.52777777778</v>
+        <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>8.523</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>18.476</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>15.432</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>7.151</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>23.801</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>10.206</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.001</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.178</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.926</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>6.812</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>9.606999999999999</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>95.663</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>6.093</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>12.541</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>6.523</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>12.064</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>5.466</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.805</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.668</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>8.151</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>21.619</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>7.651</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>12.82</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>38.19</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>147.17</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>11.56</v>
+      <c r="AG6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.34</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_414.xlsx
+++ b/DATA_goal/Junction_Flooding_414.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45095.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45095.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>20.379</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>15.362</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.081</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>44.569</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>36.329</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>15.496</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>57.659</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>24.785</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>11.565</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>16.316</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>17.829</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>19.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.716</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>16.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>22.637</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>13.594</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>238.743</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>45.131</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>14.922</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>30.052</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.149</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>30.233</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>12.881</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>11.965</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>19.444</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>52.871</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>8.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>18.354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45095.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.541</v>
+        <v>7.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.886</v>
+        <v>5.282</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.424</v>
+        <v>0.487</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.143</v>
+        <v>15.484</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.926</v>
+        <v>12.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.823</v>
+        <v>5.124</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.688</v>
+        <v>25.999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.765</v>
+        <v>8.555</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.075</v>
+        <v>4.232</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.605</v>
+        <v>5.471</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.425</v>
+        <v>6.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.521</v>
+        <v>6.793</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.951</v>
+        <v>2.193</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.253</v>
+        <v>5.639</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.297</v>
+        <v>7.773</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.353</v>
+        <v>4.848</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.135</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.718</v>
+        <v>0.442</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.702</v>
+        <v>78.544</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.894</v>
+        <v>15.979</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.663</v>
+        <v>5.205</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>10.471</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.897</v>
+        <v>5.798</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.117</v>
+        <v>0.753</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.198</v>
+        <v>13.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.207</v>
+        <v>4.392</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.757</v>
+        <v>4.344</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.382</v>
+        <v>5.133</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.384</v>
+        <v>6.914</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.856</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.801</v>
+        <v>24.325</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.652</v>
+        <v>3.164</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.864</v>
+        <v>6.302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45095.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.523</v>
+        <v>12.82</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.36</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.436</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.476</v>
+        <v>28.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.432</v>
+        <v>22.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.151</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.801</v>
+        <v>38.19</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.206</v>
+        <v>15.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.001</v>
+        <v>7.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.178</v>
+        <v>10.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.926</v>
+        <v>11.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.24</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.314</v>
+        <v>3.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.812</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.606999999999999</v>
+        <v>14.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.605</v>
+        <v>8.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.261</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.592</v>
+        <v>0.55</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.663</v>
+        <v>147.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.53</v>
+        <v>28.33</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.093</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.541</v>
+        <v>18.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.523</v>
+        <v>10.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.064</v>
+        <v>19.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.466</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.805</v>
+        <v>7.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.668</v>
+        <v>8.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.151</v>
+        <v>12.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.579</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.619</v>
+        <v>34.76</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.459</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.651</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.34</v>
+        <v>11.56</v>
       </c>
     </row>
   </sheetData>
